--- a/output.xlsx
+++ b/output.xlsx
@@ -7,16 +7,20 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Input_Sample.pdf" sheetId="1" r:id="rId1"/>
+    <sheet name="413075_PurchaseOrder_Supplier_2" sheetId="1" r:id="rId1"/>
+    <sheet name="413487_PurchaseOrder_Supplier_2" sheetId="2" r:id="rId2"/>
+    <sheet name="416605_PurchaseOrder_Supplier_2" sheetId="3" r:id="rId3"/>
+    <sheet name="448114_PurchaseOrder_Supplier_2" sheetId="4" r:id="rId4"/>
+    <sheet name="454645_PurchaseOrder_Supplier_2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
-  <si>
-    <t>338090-5832</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="67">
+  <si>
+    <t>413075-5832</t>
   </si>
   <si>
     <t>CL</t>
@@ -40,7 +44,7 @@
     <t>T-shirt - Garment Upper body</t>
   </si>
   <si>
-    <t>1-2025</t>
+    <t>2-2025</t>
   </si>
   <si>
     <t>Jersey</t>
@@ -49,43 +53,172 @@
     <t>Single</t>
   </si>
   <si>
-    <t>2025-06-30</t>
+    <t>2025-10-27</t>
+  </si>
+  <si>
+    <t>2025-11-24</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
+  </si>
+  <si>
+    <t>2025-11-10</t>
+  </si>
+  <si>
+    <t>2025-11-03</t>
+  </si>
+  <si>
+    <t>2025-10-20</t>
+  </si>
+  <si>
+    <t>Order No</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Product Description</t>
+  </si>
+  <si>
+    <t>Season</t>
+  </si>
+  <si>
+    <t>Type of Construction</t>
+  </si>
+  <si>
+    <t>No. of Pieces</t>
+  </si>
+  <si>
+    <t>Sales Mode</t>
+  </si>
+  <si>
+    <t>Time of Delivery</t>
+  </si>
+  <si>
+    <t>Invoice Average Price</t>
+  </si>
+  <si>
+    <t>413487-5832</t>
+  </si>
+  <si>
+    <t>Knitted</t>
+  </si>
+  <si>
+    <t>2025-12-22</t>
+  </si>
+  <si>
+    <t>2025-11-17</t>
+  </si>
+  <si>
+    <t>416605-5832</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>2025-12-01</t>
+  </si>
+  <si>
+    <t>448114-5832</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>MY</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>VN</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>2025-07-28</t>
+  </si>
+  <si>
+    <t>2025-08-04</t>
+  </si>
+  <si>
+    <t>2025-08-25</t>
+  </si>
+  <si>
+    <t>2025-08-18</t>
+  </si>
+  <si>
+    <t>2025-07-21</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
   </si>
   <si>
     <t>2025-08-11</t>
   </si>
   <si>
-    <t>2025-07-14</t>
-  </si>
-  <si>
-    <t>2025-08-25</t>
-  </si>
-  <si>
-    <t>Order No</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Product Description</t>
-  </si>
-  <si>
-    <t>Season</t>
-  </si>
-  <si>
-    <t>Type of Construction</t>
-  </si>
-  <si>
-    <t>No. of Pieces</t>
-  </si>
-  <si>
-    <t>Sales Mode</t>
-  </si>
-  <si>
-    <t>Time of Delivery</t>
-  </si>
-  <si>
-    <t>Invoice Average Price</t>
+    <t>454645-5832</t>
+  </si>
+  <si>
+    <t>2025-09-08</t>
+  </si>
+  <si>
+    <t>2025-10-06</t>
+  </si>
+  <si>
+    <t>2025-09-01</t>
   </si>
 </sst>
 </file>
@@ -452,31 +585,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -505,7 +638,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="1">
-        <v>1.8</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -534,7 +667,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="1">
-        <v>1.8</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -560,10 +693,10 @@
         <v>10</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" s="1">
-        <v>1.8</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -589,10 +722,10 @@
         <v>10</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I5" s="1">
-        <v>1.8</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -618,10 +751,10 @@
         <v>10</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I6" s="1">
-        <v>1.8</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -647,10 +780,1556 @@
         <v>10</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1.59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="I6" s="1">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="I7" s="1">
-        <v>1.77</v>
+        <v>1.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2.07</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1.99</v>
       </c>
     </row>
   </sheetData>
